--- a/Projects 2022/Food Court North Walk/327 Invoice for supply of Fire Fighting system - North walk.xlsx
+++ b/Projects 2022/Food Court North Walk/327 Invoice for supply of Fire Fighting system - North walk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DBC92-380A-4556-836D-64A59E6894B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB1E8ED-E043-4CA6-8DCD-5B6705562569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,10 @@
     <t>M/S The North Walk (Private) Limited</t>
   </si>
   <si>
-    <t>04-09-23</t>
-  </si>
-  <si>
     <t>Supply of Fire Fighting System - North Walk Shopping Mall</t>
+  </si>
+  <si>
+    <t>20-12-23</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -408,19 +417,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -971,24 +971,24 @@
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="28"/>
       <c r="D11" s="26"/>
       <c r="E11" s="35" t="s">
@@ -999,8 +999,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="28"/>
       <c r="D12" s="26"/>
       <c r="E12" s="35" t="s">
@@ -1023,8 +1023,8 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1041,14 +1041,14 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
@@ -1059,22 +1059,22 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="A20" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
@@ -1249,13 +1249,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="25">
         <f>SUM(F26:F29)</f>
         <v>422000</v>
@@ -1263,13 +1263,13 @@
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="25">
         <f>F32*13%</f>
         <v>54860</v>
@@ -1277,13 +1277,13 @@
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="25">
         <f>F33+F32</f>
         <v>476860</v>
@@ -1291,13 +1291,13 @@
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="33"/>
       <c r="G35" s="13"/>
     </row>
@@ -1311,14 +1311,14 @@
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="15"/>
       <c r="H37" s="13"/>
       <c r="K37" s="2"/>
@@ -1335,10 +1335,10 @@
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="36"/>
       <c r="G39" s="15"/>
       <c r="H39" s="13"/>
       <c r="K39" s="2"/>
@@ -1368,6 +1368,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A18:F18"/>
@@ -1375,11 +1380,6 @@
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
